--- a/DATA_goal/Junction_Flooding_472.xlsx
+++ b/DATA_goal/Junction_Flooding_472.xlsx
@@ -759,103 +759,103 @@
         <v>44803.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.87</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>6.54</v>
+        <v>65.45</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44803.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="4" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="F4" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44803.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.42</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="Q5" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_472.xlsx
+++ b/DATA_goal/Junction_Flooding_472.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44803.54861111111</v>
+        <v>45153.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>12.343</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>8.237</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.467</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>26.724</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>19.801</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>9.406000000000001</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>27.816</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>15.125</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>5.951</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>8.669</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>10.525</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>11.375</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.134</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>9.775</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>13.324</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.542</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>141.399</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>27.009</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>9.023</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>17.239</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>8.882</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>15.251</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>7.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>8.521000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>11.028</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.858</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>25.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>4.735</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>11.279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44803.55555555555</v>
+        <v>45153.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.39</v>
+        <v>19.096</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.5</v>
+        <v>13.904</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.9</v>
+        <v>1.849</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.87</v>
+        <v>41.735</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>33.303</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.67</v>
+        <v>14.864</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.34</v>
+        <v>55.68</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>23.269</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.11</v>
+        <v>10.095</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.49</v>
+        <v>14.766</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.79</v>
+        <v>16.689</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.71</v>
+        <v>17.835</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.38</v>
+        <v>4.83</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.8</v>
+        <v>15.038</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>21.202</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.55</v>
+        <v>12.977</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>2.58</v>
+        <v>1.393</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>2.86</v>
+        <v>1.083</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>65.45</v>
+        <v>221.58</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.43</v>
+        <v>42.024</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.07</v>
+        <v>13.881</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.19</v>
+        <v>27.891</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.58</v>
+        <v>14.577</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.12</v>
+        <v>2.54</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.59</v>
+        <v>27.904</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.47</v>
+        <v>12.261</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.47</v>
+        <v>11.022</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.93</v>
+        <v>12.917</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.2</v>
+        <v>17.495</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.4</v>
+        <v>1.162</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>50.999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.93</v>
+        <v>7.663</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.85</v>
+        <v>17.355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44803.5625</v>
+        <v>45153.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.355</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.091</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.765</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.91</v>
+        <v>0.848</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.55</v>
+        <v>9.651999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.92</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.143</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.244</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.193</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.136</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.32</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.71</v>
+        <v>0.639</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.63</v>
+        <v>0.594</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.336</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.7</v>
+        <v>1.754</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.92</v>
+        <v>1.107</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.386</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.425</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.05</v>
+        <v>4.308</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.468</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.485</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.363</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.669</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.51</v>
+        <v>9.766999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.053</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44803.56944444445</v>
+        <v>45153.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.96</v>
+        <v>12.87</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.33</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.98</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.42</v>
+        <v>28.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.93</v>
+        <v>22.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.08</v>
+        <v>10.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.94</v>
+        <v>35.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.78</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.71</v>
+        <v>6.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.09</v>
+        <v>10.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.3</v>
+        <v>11.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.32</v>
+        <v>11.75</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.93</v>
+        <v>3.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.17</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.83</v>
+        <v>14.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.95</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.13</v>
+        <v>147.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.83</v>
+        <v>28.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.57</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.27</v>
+        <v>18.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.7</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.42</v>
+        <v>1.62</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.66</v>
+        <v>17.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2</v>
+        <v>8.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.86</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.24</v>
+        <v>8.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.5</v>
+        <v>11.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>31.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.78</v>
+        <v>5.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44803.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.24</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.36</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.69</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.81</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_472.xlsx
+++ b/DATA_goal/Junction_Flooding_472.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45153.50694444445</v>
+        <v>44803.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.343</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.237</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.467</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>26.724</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>19.801</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.406000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>27.816</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.125</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.951</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>8.669</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.525</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.375</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.134</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.775</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.324</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.832000000000001</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.542</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>141.399</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>27.009</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.023</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>17.239</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.882</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.251</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.97</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>8.521000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.028</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.858</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>25.233</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.735</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45153.51388888889</v>
+        <v>44803.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.096</v>
+        <v>6.394</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.904</v>
+        <v>2.496</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.849</v>
+        <v>0.898</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41.735</v>
+        <v>18.868</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>33.303</v>
+        <v>9.951000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.864</v>
+        <v>5.671</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55.68</v>
+        <v>10.338</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.269</v>
+        <v>8.032999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.095</v>
+        <v>2.113</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.766</v>
+        <v>4.489</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.689</v>
+        <v>4.79</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.835</v>
+        <v>4.71</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.83</v>
+        <v>1.383</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.038</v>
+        <v>4.795</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.202</v>
+        <v>9.881</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.977</v>
+        <v>5.55</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.393</v>
+        <v>2.581</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.083</v>
+        <v>2.857</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>221.58</v>
+        <v>65.449</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>42.024</v>
+        <v>11.425</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.881</v>
+        <v>4.075</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.891</v>
+        <v>7.188</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.577</v>
+        <v>3.575</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.54</v>
+        <v>1.116</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.904</v>
+        <v>8.589</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.261</v>
+        <v>2.467</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.022</v>
+        <v>2.467</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.917</v>
+        <v>2.931</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.495</v>
+        <v>5.201</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.162</v>
+        <v>1.405</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>50.999</v>
+        <v>9.366</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.663</v>
+        <v>2.934</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.355</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45153.52083333334</v>
+        <v>44803.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.355</v>
+        <v>1.552</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.091</v>
+        <v>0.299</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.765</v>
+        <v>0.397</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.848</v>
+        <v>4.905</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>2.466</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>1.264</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9.651999999999999</v>
+        <v>5.551</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.582</v>
+        <v>1.92</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.143</v>
+        <v>0.352</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.244</v>
+        <v>1.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.193</v>
+        <v>1.137</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.136</v>
+        <v>0.963</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.376</v>
+        <v>1.315</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.639</v>
+        <v>2.712</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.594</v>
+        <v>1.634</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.882</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.336</v>
+        <v>0.917</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>9.449</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.754</v>
+        <v>2.696</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.347</v>
+        <v>0.745</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.107</v>
+        <v>1.918</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.386</v>
+        <v>0.78</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.425</v>
+        <v>0.214</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.308</v>
+        <v>4.053</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.291</v>
+        <v>0.241</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.468</v>
+        <v>0.331</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.485</v>
+        <v>0.443</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.363</v>
+        <v>1.251</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.669</v>
+        <v>0.49</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>9.766999999999999</v>
+        <v>5.506</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.053</v>
+        <v>0.873</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.448</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45153.52777777778</v>
+        <v>44803.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.87</v>
+        <v>3.959</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>2.329</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.358</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.09</v>
+        <v>9.423</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.66</v>
+        <v>6.925</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.36</v>
+        <v>3.077</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>35.42</v>
+        <v>9.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.71</v>
+        <v>4.775</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.75</v>
+        <v>1.71</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.41</v>
+        <v>3.087</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.17</v>
+        <v>3.305</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.75</v>
+        <v>3.318</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.16</v>
+        <v>0.93</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>3.168</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.31</v>
+        <v>4.83</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>2.948</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.59</v>
+        <v>38.128</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.18</v>
+        <v>7.827</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>2.569</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.77</v>
+        <v>5.272</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>2.702</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.62</v>
+        <v>0.419</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.56</v>
+        <v>5.662</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.26</v>
+        <v>2.004</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.4</v>
+        <v>1.863</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.68</v>
+        <v>2.237</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.86</v>
+        <v>3.501</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.293</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>31.9</v>
+        <v>8.946</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.24</v>
+        <v>1.785</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.7</v>
+        <v>3.236</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44803.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>152.69</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>32.81</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.98</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_472.xlsx
+++ b/DATA_goal/Junction_Flooding_472.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44803.54861111111</v>
+        <v>45153.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>12.343</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>8.237</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.467</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>26.724</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>19.801</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>9.406000000000001</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>27.816</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>15.125</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>5.951</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>8.669</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>10.525</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>11.375</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>3.134</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>9.775</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>13.324</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>1.542</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>141.399</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>27.009</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>9.023</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>17.239</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>8.882</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>15.251</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>7.97</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>8.521000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>11.028</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>2.858</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>25.233</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>4.735</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>11.279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44803.55555555555</v>
+        <v>45153.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.394</v>
+        <v>19.096</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.496</v>
+        <v>13.904</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.898</v>
+        <v>1.849</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.868</v>
+        <v>41.735</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.951000000000001</v>
+        <v>33.303</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.671</v>
+        <v>14.864</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.338</v>
+        <v>55.68</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.032999999999999</v>
+        <v>23.269</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.113</v>
+        <v>10.095</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.489</v>
+        <v>14.766</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.79</v>
+        <v>16.689</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.71</v>
+        <v>17.835</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.383</v>
+        <v>4.83</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.795</v>
+        <v>15.038</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.881</v>
+        <v>21.202</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.55</v>
+        <v>12.977</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>2.581</v>
+        <v>1.393</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>2.857</v>
+        <v>1.083</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>65.449</v>
+        <v>221.58</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>11.425</v>
+        <v>42.024</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.075</v>
+        <v>13.881</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>7.188</v>
+        <v>27.891</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.575</v>
+        <v>14.577</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.116</v>
+        <v>2.54</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.589</v>
+        <v>27.904</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.467</v>
+        <v>12.261</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.467</v>
+        <v>11.022</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.931</v>
+        <v>12.917</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>5.201</v>
+        <v>17.495</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.405</v>
+        <v>1.162</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.366</v>
+        <v>50.999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.934</v>
+        <v>7.663</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.85</v>
+        <v>17.355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44803.5625</v>
+        <v>45153.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.552</v>
+        <v>0.355</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.299</v>
+        <v>0.091</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.397</v>
+        <v>0.765</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.905</v>
+        <v>0.848</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.466</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.264</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.551</v>
+        <v>9.651999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.92</v>
+        <v>0.582</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.352</v>
+        <v>0.143</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.244</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.137</v>
+        <v>0.193</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.963</v>
+        <v>0.136</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.322</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.315</v>
+        <v>0.376</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.712</v>
+        <v>0.639</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.634</v>
+        <v>0.594</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.882</v>
+        <v>0.82</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.917</v>
+        <v>0.336</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>9.449</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.696</v>
+        <v>1.754</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.745</v>
+        <v>0.347</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.918</v>
+        <v>1.107</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.386</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.214</v>
+        <v>0.425</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.053</v>
+        <v>4.308</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.241</v>
+        <v>0.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.331</v>
+        <v>0.468</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.443</v>
+        <v>0.485</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.251</v>
+        <v>0.363</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.669</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.506</v>
+        <v>9.766999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.873</v>
+        <v>0.053</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.948</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44803.56944444445</v>
+        <v>45153.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.959</v>
+        <v>12.87</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.329</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.358</v>
+        <v>0.98</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.423</v>
+        <v>28.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.925</v>
+        <v>22.66</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.077</v>
+        <v>10.36</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.94</v>
+        <v>35.42</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.775</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.71</v>
+        <v>6.75</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.087</v>
+        <v>10.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.305</v>
+        <v>11.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.318</v>
+        <v>11.75</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.93</v>
+        <v>3.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.168</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.83</v>
+        <v>14.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.948</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.128</v>
+        <v>147.59</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>7.827</v>
+        <v>28.18</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.569</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.272</v>
+        <v>18.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.702</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.419</v>
+        <v>1.62</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.662</v>
+        <v>17.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.004</v>
+        <v>8.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.863</v>
+        <v>7.4</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.237</v>
+        <v>8.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.501</v>
+        <v>11.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.293</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.946</v>
+        <v>31.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.785</v>
+        <v>5.24</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.236</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44803.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.24</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.36</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>152.69</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.81</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.98</v>
+        <v>11.7</v>
       </c>
     </row>
   </sheetData>
